--- a/주요구성자산.xlsx
+++ b/주요구성자산.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>/item/main.naver?code=373220</t>
+          <t>https://finance.naver.com/item/main.naver?code=373220</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,17 +493,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>400,000</t>
+          <t>398,500</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>하향 4,500</t>
+          <t>하향 1,500</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.11%</t>
+          <t>-0.37%</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>/item/main.naver?code=051910</t>
+          <t>https://finance.naver.com/item/main.naver?code=051910</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -530,17 +530,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>268,500</t>
+          <t>266,500</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>상향 1,000</t>
+          <t>하향 2,000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>+0.37%</t>
+          <t>-0.74%</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>/item/main.naver?code=005490</t>
+          <t>https://finance.naver.com/item/main.naver?code=005490</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -572,14 +572,10 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>하향 3,500</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-1.28%</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -589,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>/item/main.naver?code=006400</t>
+          <t>https://finance.naver.com/item/main.naver?code=006400</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -604,17 +600,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>260,500</t>
+          <t>263,500</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>상향 5,500</t>
+          <t>상향 3,000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>+2.16%</t>
+          <t>+1.15%</t>
         </is>
       </c>
     </row>
@@ -626,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>/item/main.naver?code=247540</t>
+          <t>https://finance.naver.com/item/main.naver?code=247540</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -641,17 +637,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>131,000</t>
+          <t>130,300</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>하향 3,900</t>
+          <t>하향 700</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-2.89%</t>
+          <t>-0.53%</t>
         </is>
       </c>
     </row>
@@ -663,7 +659,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>/item/main.naver?code=003670</t>
+          <t>https://finance.naver.com/item/main.naver?code=003670</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -678,17 +674,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>166,800</t>
+          <t>167,100</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>하향 6,200</t>
+          <t>상향 300</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-3.58%</t>
+          <t>+0.18%</t>
         </is>
       </c>
     </row>
@@ -700,7 +696,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>/item/main.naver?code=096770</t>
+          <t>https://finance.naver.com/item/main.naver?code=096770</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -715,17 +711,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>120,500</t>
+          <t>119,500</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>상향 2,800</t>
+          <t>하향 1,000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>+2.38%</t>
+          <t>-0.83%</t>
         </is>
       </c>
     </row>
@@ -737,7 +733,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>/item/main.naver?code=086520</t>
+          <t>https://finance.naver.com/item/main.naver?code=086520</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -752,17 +748,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>72,200</t>
+          <t>71,500</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>상향 800</t>
+          <t>하향 700</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>+1.12%</t>
+          <t>-0.97%</t>
         </is>
       </c>
     </row>
@@ -774,7 +770,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>/item/main.naver?code=450080</t>
+          <t>https://finance.naver.com/item/main.naver?code=450080</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -789,17 +785,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80,600</t>
+          <t>81,100</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>상향 3,000</t>
+          <t>상향 500</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>+3.87%</t>
+          <t>+0.62%</t>
         </is>
       </c>
     </row>
@@ -811,7 +807,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>/item/main.naver?code=011790</t>
+          <t>https://finance.naver.com/item/main.naver?code=011790</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -826,17 +822,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>100,300</t>
+          <t>110,200</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>하향 4,800</t>
+          <t>상향 9,900</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-4.57%</t>
+          <t>+9.87%</t>
         </is>
       </c>
     </row>
